--- a/public/files/Procurement_upload_format.xlsx
+++ b/public/files/Procurement_upload_format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CZ\Tracebale\tracebale-web\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CZ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8723D5D7-A89A-4AB3-8912-E5B1EF4D9A7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677A356A-7B9E-4ADE-9CB9-0901847D2E33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Total Amount</t>
   </si>
   <si>
-    <t>Ginner</t>
-  </si>
-  <si>
     <t>Transport Vehicle</t>
   </si>
   <si>
@@ -75,7 +72,10 @@
     <t>Farmer Code/ Tracenet Id</t>
   </si>
   <si>
-    <t>YYYY-MM-DD</t>
+    <t>Mandi</t>
+  </si>
+  <si>
+    <t>Rice Variety</t>
   </si>
 </sst>
 </file>
@@ -83,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -147,10 +147,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,11 +433,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ295"/>
+  <dimension ref="A1:AMJ294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -457,7 +455,7 @@
     <col min="14" max="14" width="16.28515625"/>
     <col min="15" max="15" width="16.5703125"/>
     <col min="16" max="16" width="16.140625"/>
-    <col min="17" max="17" width="10.42578125"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.7109375"/>
     <col min="19" max="19" width="15.140625"/>
     <col min="20" max="20" width="9.85546875"/>
@@ -510,7 +508,7 @@
   <sheetData>
     <row r="1" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -522,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -534,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -549,26 +547,26 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
-      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
@@ -1442,9 +1440,6 @@
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B294" s="4"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B295" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
